--- a/Results/Top25_LSTM_DTW_KNN_HMM.xlsx
+++ b/Results/Top25_LSTM_DTW_KNN_HMM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mhdella\iHelm\TSA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hhse-my.sharepoint.com/personal/mohamed_abuella_hh_se/Documents/iHelm/CTs4_TSA/TSA_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEB7432-C08E-4C9B-97C0-F86595EBE305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{EBEB7432-C08E-4C9B-97C0-F86595EBE305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E594D11-0D82-4068-A5F9-3EDF350C7609}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{58FFAE2C-B66C-4842-82C4-6FC33B65541F}"/>
+    <workbookView xWindow="28680" yWindow="-5580" windowWidth="38640" windowHeight="21240" xr2:uid="{58FFAE2C-B66C-4842-82C4-6FC33B65541F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,15 +65,6 @@
     <t>avg</t>
   </si>
   <si>
-    <t>eff_pred_LSTM</t>
-  </si>
-  <si>
-    <t>eff_diff_LSTM</t>
-  </si>
-  <si>
-    <t>eff_gain_LSTM</t>
-  </si>
-  <si>
     <t>eff_pred_DTW</t>
   </si>
   <si>
@@ -102,6 +93,15 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>eff_pred_LSTM</t>
+  </si>
+  <si>
+    <t>eff_diff_LSTM</t>
+  </si>
+  <si>
+    <t>eff_gain_LSTM</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,11 +141,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -156,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,17 +492,18 @@
   <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H165"/>
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="5" width="8.81640625" style="1"/>
+    <col min="9" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -498,44 +517,44 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -552,13 +571,13 @@
         <v>0.60628013316313045</v>
       </c>
       <c r="F2">
-        <v>0.62</v>
+        <v>0.61911798767156589</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>1.2837854508435441E-2</v>
       </c>
       <c r="H2">
-        <v>2.61</v>
+        <v>2.1174790012426801</v>
       </c>
       <c r="I2">
         <v>0.62067515840861975</v>
@@ -588,7 +607,7 @@
         <v>3.4665310804040912</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -605,13 +624,13 @@
         <v>0.69686110945416058</v>
       </c>
       <c r="F3">
-        <v>0.68</v>
+        <v>0.69085200136115588</v>
       </c>
       <c r="G3">
-        <v>-0.01</v>
+        <v>-6.0091080930047003E-3</v>
       </c>
       <c r="H3">
-        <v>-1.84</v>
+        <v>-0.86231072612324888</v>
       </c>
       <c r="I3">
         <v>0.6896757546657013</v>
@@ -641,7 +660,7 @@
         <v>-2.9734834722717971</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -658,13 +677,13 @@
         <v>0.56278524678956354</v>
       </c>
       <c r="F4">
-        <v>0.61</v>
+        <v>0.6132897726390425</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>5.0504525849478947E-2</v>
       </c>
       <c r="H4">
-        <v>8.8000000000000007</v>
+        <v>8.9740315933270356</v>
       </c>
       <c r="I4">
         <v>0.59370462340095886</v>
@@ -694,7 +713,7 @@
         <v>-0.76564385959834302</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -711,13 +730,13 @@
         <v>0.53730440121598377</v>
       </c>
       <c r="F5">
-        <v>0.54</v>
+        <v>0.57275858560760118</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>3.5454184391617398E-2</v>
       </c>
       <c r="H5">
-        <v>1.1200000000000001</v>
+        <v>6.5985285643259894</v>
       </c>
       <c r="I5">
         <v>0.55814915689503541</v>
@@ -747,7 +766,7 @@
         <v>3.9288536741052829</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -764,13 +783,13 @@
         <v>0.61114526747637654</v>
       </c>
       <c r="F6">
-        <v>0.61</v>
+        <v>0.60933483380836062</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-1.810433668015921E-3</v>
       </c>
       <c r="H6">
-        <v>-0.22</v>
+        <v>-0.29623622473455569</v>
       </c>
       <c r="I6">
         <v>0.61636642118711094</v>
@@ -800,7 +819,7 @@
         <v>1.731299736874883</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -817,13 +836,13 @@
         <v>0.66081405103018143</v>
       </c>
       <c r="F7">
-        <v>0.66</v>
+        <v>0.66484652976594893</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4.0324787357675076E-3</v>
       </c>
       <c r="H7">
-        <v>0.51</v>
+        <v>0.61022896372754831</v>
       </c>
       <c r="I7">
         <v>0.66915805863014799</v>
@@ -853,7 +872,7 @@
         <v>-0.71466742712676179</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -870,13 +889,13 @@
         <v>0.67915082677939942</v>
       </c>
       <c r="F8">
-        <v>0.68</v>
+        <v>0.6733414847606054</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-5.809342018794017E-3</v>
       </c>
       <c r="H8">
-        <v>0.3</v>
+        <v>-0.85538319173407962</v>
       </c>
       <c r="I8">
         <v>0.67074829088206855</v>
@@ -906,7 +925,7 @@
         <v>-9.3555564987019864</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -923,13 +942,13 @@
         <v>0.58882509017302442</v>
       </c>
       <c r="F9">
-        <v>0.61</v>
+        <v>0.61019835775700182</v>
       </c>
       <c r="G9">
-        <v>0.02</v>
+        <v>2.1373267583977399E-2</v>
       </c>
       <c r="H9">
-        <v>3.67</v>
+        <v>3.6298160422642529</v>
       </c>
       <c r="I9">
         <v>0.5935928912906665</v>
@@ -959,7 +978,7 @@
         <v>1.803040209740749</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -976,13 +995,13 @@
         <v>0.4844576980906341</v>
       </c>
       <c r="F10">
-        <v>0.42</v>
+        <v>0.41246262554600982</v>
       </c>
       <c r="G10">
-        <v>-0.06</v>
+        <v>-7.1995072544624339E-2</v>
       </c>
       <c r="H10">
-        <v>-12.44</v>
+        <v>-14.86096161303133</v>
       </c>
       <c r="I10">
         <v>0.42583300917411171</v>
@@ -1012,7 +1031,7 @@
         <v>13.494310115056111</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1029,13 +1048,13 @@
         <v>0.64462036753921192</v>
       </c>
       <c r="F11">
-        <v>0.67</v>
+        <v>0.66847255406367845</v>
       </c>
       <c r="G11">
-        <v>0.02</v>
+        <v>2.385218652446652E-2</v>
       </c>
       <c r="H11">
-        <v>3.42</v>
+        <v>3.700191263816313</v>
       </c>
       <c r="I11">
         <v>0.66285723580485412</v>
@@ -1065,7 +1084,7 @@
         <v>7.9809664559233742</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1082,13 +1101,13 @@
         <v>0.53279770809065452</v>
       </c>
       <c r="F12">
-        <v>0.54</v>
+        <v>0.54983332672958207</v>
       </c>
       <c r="G12">
-        <v>0.01</v>
+        <v>1.7035618638927549E-2</v>
       </c>
       <c r="H12">
-        <v>1.53</v>
+        <v>3.1973896246620068</v>
       </c>
       <c r="I12">
         <v>0.54644974061640506</v>
@@ -1118,7 +1137,7 @@
         <v>-6.0286143639253176</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1135,13 +1154,13 @@
         <v>0.69301574150564305</v>
       </c>
       <c r="F13">
-        <v>0.7</v>
+        <v>0.70333979928417545</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>1.0324057778532399E-2</v>
       </c>
       <c r="H13">
-        <v>1.54</v>
+        <v>1.489729187983869</v>
       </c>
       <c r="I13">
         <v>0.70104183190842995</v>
@@ -1171,7 +1190,7 @@
         <v>4.3891316751203764</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1188,13 +1207,13 @@
         <v>0.67092714588436642</v>
       </c>
       <c r="F14">
-        <v>0.67</v>
+        <v>0.67025178739197167</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>-6.7535849239475088E-4</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-0.10066048102801731</v>
       </c>
       <c r="I14">
         <v>0.6665095728942374</v>
@@ -1224,7 +1243,7 @@
         <v>1.0636493938799669</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1241,13 +1260,13 @@
         <v>0.64979060438806702</v>
       </c>
       <c r="F15">
-        <v>0.67</v>
+        <v>0.66486460193529251</v>
       </c>
       <c r="G15">
-        <v>0.02</v>
+        <v>1.5073997547225489E-2</v>
       </c>
       <c r="H15">
-        <v>3.16</v>
+        <v>2.319823870248364</v>
       </c>
       <c r="I15">
         <v>0.66650593923453538</v>
@@ -1277,7 +1296,7 @@
         <v>1.862984097387973</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1294,13 +1313,13 @@
         <v>0.62713595609170447</v>
       </c>
       <c r="F16">
-        <v>0.62</v>
+        <v>0.62402235073469625</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>-3.1136053570082201E-3</v>
       </c>
       <c r="H16">
-        <v>-0.68</v>
+        <v>-0.49648012153730281</v>
       </c>
       <c r="I16">
         <v>0.62422529264813953</v>
@@ -1330,7 +1349,7 @@
         <v>-1.14545258172424</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1347,13 +1366,13 @@
         <v>0.63162649371471136</v>
       </c>
       <c r="F17">
-        <v>0.64</v>
+        <v>0.63485206486575363</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3.225571151042272E-3</v>
       </c>
       <c r="H17">
-        <v>0.77</v>
+        <v>0.5106769876089422</v>
       </c>
       <c r="I17">
         <v>0.60858677797193272</v>
@@ -1383,7 +1402,7 @@
         <v>-5.4429195833920163</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1400,13 +1419,13 @@
         <v>0.56082710971394678</v>
       </c>
       <c r="F18">
-        <v>0.57999999999999996</v>
+        <v>0.58933837724460558</v>
       </c>
       <c r="G18">
-        <v>0.02</v>
+        <v>2.8511267530658801E-2</v>
       </c>
       <c r="H18">
-        <v>3.26</v>
+        <v>5.0837891101949664</v>
       </c>
       <c r="I18">
         <v>0.59437757914676204</v>
@@ -1436,7 +1455,7 @@
         <v>2.8002369680368702</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1453,13 +1472,13 @@
         <v>0.60480736001534385</v>
       </c>
       <c r="F19">
-        <v>0.61</v>
+        <v>0.60659306023992532</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.7857002245814659E-3</v>
       </c>
       <c r="H19">
-        <v>0.18</v>
+        <v>0.2952510737528331</v>
       </c>
       <c r="I19">
         <v>0.60800267366930438</v>
@@ -1489,7 +1508,7 @@
         <v>2.0065593396596002</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1506,13 +1525,13 @@
         <v>0.57695643811173392</v>
       </c>
       <c r="F20">
-        <v>0.56999999999999995</v>
+        <v>0.59487660613732718</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.792016802559326E-2</v>
       </c>
       <c r="H20">
-        <v>-0.43</v>
+        <v>3.1059828510177452</v>
       </c>
       <c r="I20">
         <v>0.63175076408167574</v>
@@ -1542,7 +1561,7 @@
         <v>-0.83799106115982069</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1559,13 +1578,13 @@
         <v>0.50658417295366998</v>
       </c>
       <c r="F21">
-        <v>0.51</v>
+        <v>0.5060092808900335</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>-5.7489206363647849E-4</v>
       </c>
       <c r="H21">
-        <v>0.39</v>
+        <v>-0.11348401595030801</v>
       </c>
       <c r="I21">
         <v>0.53802327986537368</v>
@@ -1595,7 +1614,7 @@
         <v>-5.0251662496225302</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1612,13 +1631,13 @@
         <v>0.64147840943348122</v>
       </c>
       <c r="F22">
-        <v>0.65</v>
+        <v>0.6530716699914062</v>
       </c>
       <c r="G22">
-        <v>0.01</v>
+        <v>1.159326055792498E-2</v>
       </c>
       <c r="H22">
-        <v>1.44</v>
+        <v>1.807272136900681</v>
       </c>
       <c r="I22">
         <v>0.65778039682237255</v>
@@ -1648,7 +1667,7 @@
         <v>0.60728893691186592</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1665,13 +1684,13 @@
         <v>0.56512828828382089</v>
       </c>
       <c r="F23">
-        <v>0.56000000000000005</v>
+        <v>0.57049154131487323</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>5.3632530310523396E-3</v>
       </c>
       <c r="H23">
-        <v>-0.18</v>
+        <v>0.94903283771892621</v>
       </c>
       <c r="I23">
         <v>0.56551848427035845</v>
@@ -1701,7 +1720,7 @@
         <v>1.3786269635262769</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1718,13 +1737,13 @@
         <v>0.53411248805065914</v>
       </c>
       <c r="F24">
-        <v>0.51</v>
+        <v>0.5421818887617782</v>
       </c>
       <c r="G24">
-        <v>-0.03</v>
+        <v>8.0694007111190569E-3</v>
       </c>
       <c r="H24">
-        <v>-4.95</v>
+        <v>1.510805474811084</v>
       </c>
       <c r="I24">
         <v>0.56448584667263346</v>
@@ -1754,7 +1773,7 @@
         <v>1.472811838999571</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1771,13 +1790,13 @@
         <v>0.54422022671141979</v>
       </c>
       <c r="F25">
-        <v>0.52</v>
+        <v>0.55004739246985768</v>
       </c>
       <c r="G25">
-        <v>-0.03</v>
+        <v>5.8271657584378911E-3</v>
       </c>
       <c r="H25">
-        <v>-4.71</v>
+        <v>1.0707367114320481</v>
       </c>
       <c r="I25">
         <v>0.54616606083096286</v>
@@ -1807,7 +1826,7 @@
         <v>3.315205077170039</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1824,13 +1843,13 @@
         <v>0.6139539399302445</v>
       </c>
       <c r="F26">
-        <v>0.6</v>
+        <v>0.628007397454594</v>
       </c>
       <c r="G26">
-        <v>-0.01</v>
+        <v>1.40534575243495E-2</v>
       </c>
       <c r="H26">
-        <v>-2.37</v>
+        <v>2.2890084435236639</v>
       </c>
       <c r="I26">
         <v>0.63473862835191608</v>
@@ -1860,7 +1879,7 @@
         <v>4.5629700649077982</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1877,13 +1896,13 @@
         <v>0.53060334069055937</v>
       </c>
       <c r="F27">
-        <v>0.54</v>
+        <v>0.56225788297754731</v>
       </c>
       <c r="G27">
-        <v>0.01</v>
+        <v>3.1654542286987941E-2</v>
       </c>
       <c r="H27">
-        <v>2.41</v>
+        <v>5.9657638502220509</v>
       </c>
       <c r="I27">
         <v>0.59134750038537254</v>
@@ -1913,7 +1932,7 @@
         <v>9.0539384680528858</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1930,13 +1949,13 @@
         <v>0.599972662055132</v>
       </c>
       <c r="F28">
-        <v>0.6</v>
+        <v>0.60422973683223868</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4.2570747771066841E-3</v>
       </c>
       <c r="H28">
-        <v>-0.75</v>
+        <v>0.70954479201178977</v>
       </c>
       <c r="I28">
         <v>0.62911475103670189</v>
@@ -1966,7 +1985,7 @@
         <v>2.4014676741910201</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1983,13 +2002,13 @@
         <v>0.65143308390958066</v>
       </c>
       <c r="F29">
-        <v>0.65</v>
+        <v>0.63233613674189304</v>
       </c>
       <c r="G29">
-        <v>-0.01</v>
+        <v>-1.909694716768762E-2</v>
       </c>
       <c r="H29">
-        <v>-0.78</v>
+        <v>-2.931528600463019</v>
       </c>
       <c r="I29">
         <v>0.65469170893520867</v>
@@ -2019,7 +2038,7 @@
         <v>-4.5562445576291744</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2036,13 +2055,13 @@
         <v>0.6638677373849764</v>
       </c>
       <c r="F30">
-        <v>0.67</v>
+        <v>0.67749683844868058</v>
       </c>
       <c r="G30">
-        <v>0.01</v>
+        <v>1.3629101063704191E-2</v>
       </c>
       <c r="H30">
-        <v>1.53</v>
+        <v>2.0529843967700869</v>
       </c>
       <c r="I30">
         <v>0.686573989948426</v>
@@ -2072,7 +2091,7 @@
         <v>-3.5316960535117561</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2089,13 +2108,13 @@
         <v>0.56378082252094619</v>
       </c>
       <c r="F31">
-        <v>0.55000000000000004</v>
+        <v>0.57515077272464121</v>
       </c>
       <c r="G31">
-        <v>-0.01</v>
+        <v>1.1369950203695019E-2</v>
       </c>
       <c r="H31">
-        <v>-2.2400000000000002</v>
+        <v>2.0167323451788031</v>
       </c>
       <c r="I31">
         <v>0.59049933629429507</v>
@@ -2125,7 +2144,7 @@
         <v>-0.20350879476063391</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2142,13 +2161,13 @@
         <v>0.59354568897725146</v>
       </c>
       <c r="F32">
-        <v>0.61</v>
+        <v>0.63964983125964525</v>
       </c>
       <c r="G32">
-        <v>0.01</v>
+        <v>4.610414228239379E-2</v>
       </c>
       <c r="H32">
-        <v>2.12</v>
+        <v>7.7675810200620958</v>
       </c>
       <c r="I32">
         <v>0.63588166571078653</v>
@@ -2178,7 +2197,7 @@
         <v>-9.7183089597484713</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2195,13 +2214,13 @@
         <v>0.63202226226738967</v>
       </c>
       <c r="F33">
-        <v>0.63</v>
+        <v>0.62512932679448419</v>
       </c>
       <c r="G33">
-        <v>-0.01</v>
+        <v>-6.8929354729054806E-3</v>
       </c>
       <c r="H33">
-        <v>-0.91</v>
+        <v>-1.090615929916293</v>
       </c>
       <c r="I33">
         <v>0.6130147378889178</v>
@@ -2231,7 +2250,7 @@
         <v>-1.119978395500157</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2248,13 +2267,13 @@
         <v>0.56590332826740342</v>
       </c>
       <c r="F34">
-        <v>0.55000000000000004</v>
+        <v>0.58233364385889419</v>
       </c>
       <c r="G34">
-        <v>-0.02</v>
+        <v>1.643031559149077E-2</v>
       </c>
       <c r="H34">
-        <v>-2.98</v>
+        <v>2.9033785049108318</v>
       </c>
       <c r="I34">
         <v>0.57148593770786005</v>
@@ -2284,7 +2303,7 @@
         <v>1.7609553916744249</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2301,13 +2320,13 @@
         <v>0.63071289377913609</v>
       </c>
       <c r="F35">
-        <v>0.64</v>
+        <v>0.64343544887315307</v>
       </c>
       <c r="G35">
-        <v>0.01</v>
+        <v>1.272255509401699E-2</v>
       </c>
       <c r="H35">
-        <v>1.59</v>
+        <v>2.0171706048032991</v>
       </c>
       <c r="I35">
         <v>0.64406597892375361</v>
@@ -2337,7 +2356,7 @@
         <v>1.147628671134215</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2354,13 +2373,13 @@
         <v>0.64716472371618994</v>
       </c>
       <c r="F36">
-        <v>0.66</v>
+        <v>0.6588321677272504</v>
       </c>
       <c r="G36">
-        <v>0.01</v>
+        <v>1.1667444011060461E-2</v>
       </c>
       <c r="H36">
-        <v>1.48</v>
+        <v>1.80285537568595</v>
       </c>
       <c r="I36">
         <v>0.66903570170493265</v>
@@ -2390,7 +2409,7 @@
         <v>1.536745089600601</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2407,13 +2426,13 @@
         <v>0.59858041234843973</v>
       </c>
       <c r="F37">
-        <v>0.61</v>
+        <v>0.6098367373337672</v>
       </c>
       <c r="G37">
-        <v>0.01</v>
+        <v>1.1256324985327471E-2</v>
       </c>
       <c r="H37">
-        <v>1.82</v>
+        <v>1.880503396555357</v>
       </c>
       <c r="I37">
         <v>0.6042882321975771</v>
@@ -2443,7 +2462,7 @@
         <v>3.3495850803637102</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2460,13 +2479,13 @@
         <v>0.55396471242833201</v>
       </c>
       <c r="F38">
-        <v>0.55000000000000004</v>
+        <v>0.57148593770786005</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1.7521225279528041E-2</v>
       </c>
       <c r="H38">
-        <v>-0.24</v>
+        <v>3.1628775058113132</v>
       </c>
       <c r="I38">
         <v>0.59475079403628062</v>
@@ -2496,7 +2515,7 @@
         <v>7.3952827278915123</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2513,13 +2532,13 @@
         <v>0.61142702943566496</v>
       </c>
       <c r="F39">
-        <v>0.65</v>
+        <v>0.65612117656795665</v>
       </c>
       <c r="G39">
-        <v>0.04</v>
+        <v>4.4694147132291702E-2</v>
       </c>
       <c r="H39">
-        <v>6.34</v>
+        <v>7.3098088538126147</v>
       </c>
       <c r="I39">
         <v>0.60763141847331625</v>
@@ -2549,7 +2568,7 @@
         <v>-1.098034872108075</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2566,13 +2585,13 @@
         <v>0.59174827850693612</v>
       </c>
       <c r="F40">
-        <v>0.6</v>
+        <v>0.60181286312871007</v>
       </c>
       <c r="G40">
-        <v>0.01</v>
+        <v>1.006458462177395E-2</v>
       </c>
       <c r="H40">
-        <v>1.98</v>
+        <v>1.700821952058452</v>
       </c>
       <c r="I40">
         <v>0.59925553749358085</v>
@@ -2602,7 +2621,7 @@
         <v>3.224001160146813</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2619,13 +2638,13 @@
         <v>0.52595334555044859</v>
       </c>
       <c r="F41">
-        <v>0.54</v>
+        <v>0.5557674678782405</v>
       </c>
       <c r="G41">
-        <v>0.01</v>
+        <v>2.98141223277919E-2</v>
       </c>
       <c r="H41">
-        <v>2.4700000000000002</v>
+        <v>5.6685868775279387</v>
       </c>
       <c r="I41">
         <v>0.57015806084890053</v>
@@ -2655,7 +2674,7 @@
         <v>3.8086422693934918</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2672,13 +2691,13 @@
         <v>0.58770320432907563</v>
       </c>
       <c r="F42">
-        <v>0.59</v>
+        <v>0.58796703355919466</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2.6382923011902809E-4</v>
       </c>
       <c r="H42">
-        <v>0.12</v>
+        <v>4.4891575913767003E-2</v>
       </c>
       <c r="I42">
         <v>0.57413899682827663</v>
@@ -2708,7 +2727,7 @@
         <v>-0.192941969157647</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2725,13 +2744,13 @@
         <v>0.58552429504725556</v>
       </c>
       <c r="F43">
-        <v>0.59</v>
+        <v>0.59099965777698182</v>
       </c>
       <c r="G43">
-        <v>0.01</v>
+        <v>5.475362729726263E-3</v>
       </c>
       <c r="H43">
-        <v>1.32</v>
+        <v>0.9351213563707661</v>
       </c>
       <c r="I43">
         <v>0.59551891655546263</v>
@@ -2761,7 +2780,7 @@
         <v>-4.5951485035045633E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2778,13 +2797,13 @@
         <v>0.63962319153374991</v>
       </c>
       <c r="F44">
-        <v>0.65</v>
+        <v>0.65364436767173162</v>
       </c>
       <c r="G44">
-        <v>0.01</v>
+        <v>1.4021176137981709E-2</v>
       </c>
       <c r="H44">
-        <v>1.62</v>
+        <v>2.19209939907907</v>
       </c>
       <c r="I44">
         <v>0.63335543524288962</v>
@@ -2814,7 +2833,7 @@
         <v>-1.316025519926586</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2831,13 +2850,13 @@
         <v>0.63875869357114901</v>
       </c>
       <c r="F45">
-        <v>0.65</v>
+        <v>0.64121642085008412</v>
       </c>
       <c r="G45">
-        <v>0.01</v>
+        <v>2.4577272789351179E-3</v>
       </c>
       <c r="H45">
-        <v>1.02</v>
+        <v>0.38476615718442048</v>
       </c>
       <c r="I45">
         <v>0.64518342028879438</v>
@@ -2867,7 +2886,7 @@
         <v>0.26793219828430231</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -2884,13 +2903,13 @@
         <v>0.65016736698880273</v>
       </c>
       <c r="F46">
-        <v>0.66</v>
+        <v>0.66074553859151175</v>
       </c>
       <c r="G46">
-        <v>0.01</v>
+        <v>1.0578171602709021E-2</v>
       </c>
       <c r="H46">
-        <v>1.56</v>
+        <v>1.6269920853919451</v>
       </c>
       <c r="I46">
         <v>0.6583162635811064</v>
@@ -2920,7 +2939,7 @@
         <v>-4.1822070355171563</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2937,13 +2956,13 @@
         <v>0.54147583520670417</v>
       </c>
       <c r="F47">
-        <v>0.54</v>
+        <v>0.56736638460148336</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2.5890549394779191E-2</v>
       </c>
       <c r="H47">
-        <v>0.37</v>
+        <v>4.7814782694588169</v>
       </c>
       <c r="I47">
         <v>0.58500796468366101</v>
@@ -2973,7 +2992,7 @@
         <v>7.2724737666446142</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -2990,13 +3009,13 @@
         <v>0.55527170400274273</v>
       </c>
       <c r="F48">
-        <v>0.6</v>
+        <v>0.60066764540260265</v>
       </c>
       <c r="G48">
-        <v>0.04</v>
+        <v>4.5395941399859918E-2</v>
       </c>
       <c r="H48">
-        <v>7.7</v>
+        <v>8.1754465557343963</v>
       </c>
       <c r="I48">
         <v>0.61810614264832342</v>
@@ -3026,7 +3045,7 @@
         <v>6.753250574099984</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -3043,13 +3062,13 @@
         <v>0.5724035447339948</v>
       </c>
       <c r="F49">
-        <v>0.56999999999999995</v>
+        <v>0.56616342180570345</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>-6.2401229282913473E-3</v>
       </c>
       <c r="H49">
-        <v>-0.49</v>
+        <v>-1.0901614753610991</v>
       </c>
       <c r="I49">
         <v>0.54420657317890275</v>
@@ -3079,7 +3098,7 @@
         <v>-0.82945531024134023</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -3096,13 +3115,13 @@
         <v>0.61089724597209694</v>
       </c>
       <c r="F50">
-        <v>0.57999999999999996</v>
+        <v>0.61700700908062478</v>
       </c>
       <c r="G50">
-        <v>-0.03</v>
+        <v>6.1097631085278437E-3</v>
       </c>
       <c r="H50">
-        <v>-5.04</v>
+        <v>1.000129424189107</v>
       </c>
       <c r="I50">
         <v>0.61645084998336763</v>
@@ -3132,7 +3151,7 @@
         <v>2.7484945564455052</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -3149,13 +3168,13 @@
         <v>0.62531298714597516</v>
       </c>
       <c r="F51">
-        <v>0.64</v>
+        <v>0.64073134771206164</v>
       </c>
       <c r="G51">
-        <v>0.01</v>
+        <v>1.5418360566086481E-2</v>
       </c>
       <c r="H51">
-        <v>1.57</v>
+        <v>2.4657029172636009</v>
       </c>
       <c r="I51">
         <v>0.64559994353464289</v>
@@ -3185,7 +3204,7 @@
         <v>2.74496430053658</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -3202,13 +3221,13 @@
         <v>0.63200757764391002</v>
       </c>
       <c r="F52">
-        <v>0.65</v>
+        <v>0.64875068366868727</v>
       </c>
       <c r="G52">
-        <v>0.02</v>
+        <v>1.674310602477724E-2</v>
       </c>
       <c r="H52">
-        <v>2.84</v>
+        <v>2.649193873148584</v>
       </c>
       <c r="I52">
         <v>0.65918853509144126</v>
@@ -3238,7 +3257,7 @@
         <v>3.3740852606051739</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -3255,13 +3274,13 @@
         <v>0.552791525227736</v>
       </c>
       <c r="F53">
-        <v>0.52</v>
+        <v>0.55732578329221893</v>
       </c>
       <c r="G53">
-        <v>-0.03</v>
+        <v>4.5342580644829322E-3</v>
       </c>
       <c r="H53">
-        <v>-5.41</v>
+        <v>0.82024739120501788</v>
       </c>
       <c r="I53">
         <v>0.5507737417243036</v>
@@ -3291,7 +3310,7 @@
         <v>-0.32299277051808928</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -3308,13 +3327,13 @@
         <v>0.61596827644716989</v>
       </c>
       <c r="F54">
-        <v>0.63</v>
+        <v>0.62684713098326061</v>
       </c>
       <c r="G54">
-        <v>0.01</v>
+        <v>1.0878854536090721E-2</v>
       </c>
       <c r="H54">
-        <v>2.36</v>
+        <v>1.766138769164969</v>
       </c>
       <c r="I54">
         <v>0.63329740645003363</v>
@@ -3344,7 +3363,7 @@
         <v>0.25670125852840159</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -3361,13 +3380,13 @@
         <v>0.58896603362996547</v>
       </c>
       <c r="F55">
-        <v>0.57999999999999996</v>
+        <v>0.57583914065036734</v>
       </c>
       <c r="G55">
-        <v>-0.01</v>
+        <v>-1.3126892979598129E-2</v>
       </c>
       <c r="H55">
-        <v>-1.19</v>
+        <v>-2.228803059947845</v>
       </c>
       <c r="I55">
         <v>0.59209374666322345</v>
@@ -3397,7 +3416,7 @@
         <v>2.3250681690770132</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -3414,13 +3433,13 @@
         <v>0.66943623196188085</v>
       </c>
       <c r="F56">
-        <v>0.68</v>
+        <v>0.67999226824915882</v>
       </c>
       <c r="G56">
-        <v>0.01</v>
+        <v>1.055603628727797E-2</v>
       </c>
       <c r="H56">
-        <v>1.42</v>
+        <v>1.5768546402607999</v>
       </c>
       <c r="I56">
         <v>0.66879359274186978</v>
@@ -3450,7 +3469,7 @@
         <v>1.985243302004787</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -3467,13 +3486,13 @@
         <v>0.57470508719839064</v>
       </c>
       <c r="F57">
-        <v>0.54</v>
+        <v>0.58028623915607302</v>
       </c>
       <c r="G57">
-        <v>-0.03</v>
+        <v>5.5811519576823843E-3</v>
       </c>
       <c r="H57">
-        <v>-5.95</v>
+        <v>0.97113320936303926</v>
       </c>
       <c r="I57">
         <v>0.59803766670784331</v>
@@ -3503,7 +3522,7 @@
         <v>2.206746262888267</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -3520,13 +3539,13 @@
         <v>0.6003871488579865</v>
       </c>
       <c r="F58">
-        <v>0.56999999999999995</v>
+        <v>0.61546882141579928</v>
       </c>
       <c r="G58">
-        <v>-0.03</v>
+        <v>1.508167255781279E-2</v>
       </c>
       <c r="H58">
-        <v>-5.19</v>
+        <v>2.511991235405366</v>
       </c>
       <c r="I58">
         <v>0.61966051404511746</v>
@@ -3556,7 +3575,7 @@
         <v>4.9460609417610284</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -3573,13 +3592,13 @@
         <v>0.5563209674783004</v>
       </c>
       <c r="F59">
-        <v>0.57999999999999996</v>
+        <v>0.60212553958604587</v>
       </c>
       <c r="G59">
-        <v>0.03</v>
+        <v>4.5804572107745467E-2</v>
       </c>
       <c r="H59">
-        <v>4.75</v>
+        <v>8.2334793734935214</v>
       </c>
       <c r="I59">
         <v>0.59847455521784498</v>
@@ -3609,7 +3628,7 @@
         <v>6.3440994469465233</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -3626,13 +3645,13 @@
         <v>0.66768023390299991</v>
       </c>
       <c r="F60">
-        <v>0.67</v>
+        <v>0.66526034560511649</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>-2.4198882978834209E-3</v>
       </c>
       <c r="H60">
-        <v>0.47</v>
+        <v>-0.36243222054630742</v>
       </c>
       <c r="I60">
         <v>0.66473063222277551</v>
@@ -3662,7 +3681,7 @@
         <v>-7.1743924194251054</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -3679,13 +3698,13 @@
         <v>0.597944994463808</v>
       </c>
       <c r="F61">
-        <v>0.61</v>
+        <v>0.6151770865711812</v>
       </c>
       <c r="G61">
-        <v>0.01</v>
+        <v>1.7232092107373202E-2</v>
       </c>
       <c r="H61">
-        <v>2.09</v>
+        <v>2.8818858368110658</v>
       </c>
       <c r="I61">
         <v>0.61795997218240539</v>
@@ -3715,7 +3734,7 @@
         <v>6.1444935087207551</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -3732,13 +3751,13 @@
         <v>0.58803198999576023</v>
       </c>
       <c r="F62">
-        <v>0.6</v>
+        <v>0.60529349259269871</v>
       </c>
       <c r="G62">
-        <v>0.01</v>
+        <v>1.7261502596938479E-2</v>
       </c>
       <c r="H62">
-        <v>1.57</v>
+        <v>2.9354699898321761</v>
       </c>
       <c r="I62">
         <v>0.60757718880607103</v>
@@ -3768,7 +3787,7 @@
         <v>2.2130543539584</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -3785,13 +3804,13 @@
         <v>0.62077573882610437</v>
       </c>
       <c r="F63">
-        <v>0.63</v>
+        <v>0.64126575458704949</v>
       </c>
       <c r="G63">
-        <v>0.01</v>
+        <v>2.0490015760945109E-2</v>
       </c>
       <c r="H63">
-        <v>1.84</v>
+        <v>3.3007114291695769</v>
       </c>
       <c r="I63">
         <v>0.61949864572200886</v>
@@ -3821,7 +3840,7 @@
         <v>2.3418605774682781</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -3838,13 +3857,13 @@
         <v>0.54378518447839308</v>
       </c>
       <c r="F64">
-        <v>0.51</v>
+        <v>0.54164763378025083</v>
       </c>
       <c r="G64">
-        <v>-0.03</v>
+        <v>-2.1375506981422539E-3</v>
       </c>
       <c r="H64">
-        <v>-6.34</v>
+        <v>-0.39308733653577288</v>
       </c>
       <c r="I64">
         <v>0.59031798981857109</v>
@@ -3874,7 +3893,7 @@
         <v>1.6227273017074171</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3891,13 +3910,13 @@
         <v>0.63959691002467878</v>
       </c>
       <c r="F65">
-        <v>0.64</v>
+        <v>0.65133613408218571</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1.173922405750694E-2</v>
       </c>
       <c r="H65">
-        <v>0.63</v>
+        <v>1.835409751597139</v>
       </c>
       <c r="I65">
         <v>0.65008637636042743</v>
@@ -3927,7 +3946,7 @@
         <v>2.3160201198494841</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -3944,13 +3963,13 @@
         <v>0.66530953293040818</v>
       </c>
       <c r="F66">
-        <v>0.68</v>
+        <v>0.65486179324620564</v>
       </c>
       <c r="G66">
-        <v>0.01</v>
+        <v>-1.0447739684202539E-2</v>
       </c>
       <c r="H66">
-        <v>1.73</v>
+        <v>-1.5703577308121</v>
       </c>
       <c r="I66">
         <v>0.66469956071948788</v>
@@ -3980,7 +3999,7 @@
         <v>7.3348421497257563</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -3997,13 +4016,13 @@
         <v>0.64914326425900204</v>
       </c>
       <c r="F67">
-        <v>0.66</v>
+        <v>0.66617483693582968</v>
       </c>
       <c r="G67">
-        <v>0.01</v>
+        <v>1.7031572676827641E-2</v>
       </c>
       <c r="H67">
-        <v>1.64</v>
+        <v>2.6237001313214279</v>
       </c>
       <c r="I67">
         <v>0.63401590368534888</v>
@@ -4033,7 +4052,7 @@
         <v>-1.171695533097288</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -4050,13 +4069,13 @@
         <v>0.4632702732186883</v>
       </c>
       <c r="F68">
-        <v>0.42</v>
+        <v>0.48945156547561652</v>
       </c>
       <c r="G68">
-        <v>-0.05</v>
+        <v>2.618129225692822E-2</v>
       </c>
       <c r="H68">
-        <v>-9.73</v>
+        <v>5.6514077786660097</v>
       </c>
       <c r="I68">
         <v>0.52197513209817592</v>
@@ -4086,7 +4105,7 @@
         <v>-2.2264694379796222</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -4103,13 +4122,13 @@
         <v>0.5667314691310702</v>
       </c>
       <c r="F69">
-        <v>0.55000000000000004</v>
+        <v>0.54911784858453327</v>
       </c>
       <c r="G69">
-        <v>-0.02</v>
+        <v>-1.761362054653692E-2</v>
       </c>
       <c r="H69">
-        <v>-2.73</v>
+        <v>-3.107930564283409</v>
       </c>
       <c r="I69">
         <v>0.60929520499385137</v>
@@ -4139,7 +4158,7 @@
         <v>4.4009909018784583</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -4156,13 +4175,13 @@
         <v>0.60292184229615331</v>
       </c>
       <c r="F70">
-        <v>0.61</v>
+        <v>0.61473652364231968</v>
       </c>
       <c r="G70">
-        <v>0.01</v>
+        <v>1.181468134616637E-2</v>
       </c>
       <c r="H70">
-        <v>1.52</v>
+        <v>1.959570962161798</v>
       </c>
       <c r="I70">
         <v>0.63262234308647525</v>
@@ -4192,7 +4211,7 @@
         <v>-1.915014106176552</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -4209,13 +4228,13 @@
         <v>0.66868082892100067</v>
       </c>
       <c r="F71">
-        <v>0.68</v>
+        <v>0.68277201538350996</v>
       </c>
       <c r="G71">
-        <v>0.01</v>
+        <v>1.409118646250929E-2</v>
       </c>
       <c r="H71">
-        <v>1.8</v>
+        <v>2.107311269151706</v>
       </c>
       <c r="I71">
         <v>0.69206466833841529</v>
@@ -4245,7 +4264,7 @@
         <v>-1.2561970964955209</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -4262,13 +4281,13 @@
         <v>0.62510555600810924</v>
       </c>
       <c r="F72">
-        <v>0.64</v>
+        <v>0.64060705378394223</v>
       </c>
       <c r="G72">
-        <v>0.01</v>
+        <v>1.5501497775832981E-2</v>
       </c>
       <c r="H72">
-        <v>2.12</v>
+        <v>2.4798208281533638</v>
       </c>
       <c r="I72">
         <v>0.64241765071420187</v>
@@ -4298,7 +4317,7 @@
         <v>2.728568966609819</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -4315,13 +4334,13 @@
         <v>0.61873908866004057</v>
       </c>
       <c r="F73">
-        <v>0.62</v>
+        <v>0.61940689219007017</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>6.6780353002959814E-4</v>
       </c>
       <c r="H73">
-        <v>0.11</v>
+        <v>0.1079297465230155</v>
       </c>
       <c r="I73">
         <v>0.61932050525637949</v>
@@ -4351,7 +4370,7 @@
         <v>-2.5147533962214288</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -4368,13 +4387,13 @@
         <v>0.53400789618137989</v>
       </c>
       <c r="F74">
-        <v>0.52</v>
+        <v>0.53351146869540811</v>
       </c>
       <c r="G74">
-        <v>-0.02</v>
+        <v>-4.9642748597178432E-4</v>
       </c>
       <c r="H74">
-        <v>-3.52</v>
+        <v>-9.2962574059610698E-2</v>
       </c>
       <c r="I74">
         <v>0.52613833692178669</v>
@@ -4404,7 +4423,7 @@
         <v>-0.74393605316288491</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -4421,13 +4440,13 @@
         <v>0.70595238910730163</v>
       </c>
       <c r="F75">
-        <v>0.7</v>
+        <v>0.70054942974548373</v>
       </c>
       <c r="G75">
-        <v>-0.01</v>
+        <v>-5.4029593618178939E-3</v>
       </c>
       <c r="H75">
-        <v>-1.49</v>
+        <v>-0.76534330716694665</v>
       </c>
       <c r="I75">
         <v>0.71178278670838946</v>
@@ -4457,7 +4476,7 @@
         <v>-7.7694373469468792</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -4474,13 +4493,13 @@
         <v>0.57642769641396041</v>
       </c>
       <c r="F76">
-        <v>0.54</v>
+        <v>0.55704941504460392</v>
       </c>
       <c r="G76">
-        <v>-0.04</v>
+        <v>-1.9378281369356491E-2</v>
       </c>
       <c r="H76">
-        <v>-6.77</v>
+        <v>-3.3617887360221519</v>
       </c>
       <c r="I76">
         <v>0.54769036088961043</v>
@@ -4510,7 +4529,7 @@
         <v>2.7696240060556749</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -4527,13 +4546,13 @@
         <v>0.57673708607965102</v>
       </c>
       <c r="F77">
-        <v>0.56999999999999995</v>
+        <v>0.58726976998212788</v>
       </c>
       <c r="G77">
-        <v>-0.01</v>
+        <v>1.053268390247686E-2</v>
       </c>
       <c r="H77">
-        <v>-1.1599999999999999</v>
+        <v>1.826253965055791</v>
       </c>
       <c r="I77">
         <v>0.59428383654720596</v>
@@ -4563,7 +4582,7 @@
         <v>1.6948326967035801</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -4580,13 +4599,13 @@
         <v>0.6356702895307812</v>
       </c>
       <c r="F78">
-        <v>0.63</v>
+        <v>0.62729660534281961</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>-8.3736841879615831E-3</v>
       </c>
       <c r="H78">
-        <v>-0.6</v>
+        <v>-1.3172999156752481</v>
       </c>
       <c r="I78">
         <v>0.64633099686062345</v>
@@ -4616,7 +4635,7 @@
         <v>0.7480811874196025</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -4633,13 +4652,13 @@
         <v>0.63890134279725408</v>
       </c>
       <c r="F79">
-        <v>0.66</v>
+        <v>0.65740179272981247</v>
       </c>
       <c r="G79">
-        <v>0.02</v>
+        <v>1.850044993255839E-2</v>
       </c>
       <c r="H79">
-        <v>2.76</v>
+        <v>2.895666152705088</v>
       </c>
       <c r="I79">
         <v>0.60022916986386798</v>
@@ -4669,7 +4688,7 @@
         <v>-4.3121747805887054</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -4686,13 +4705,13 @@
         <v>0.58099892519336582</v>
       </c>
       <c r="F80">
-        <v>0.56999999999999995</v>
+        <v>0.587406538795608</v>
       </c>
       <c r="G80">
-        <v>-0.01</v>
+        <v>6.4076136022421792E-3</v>
       </c>
       <c r="H80">
-        <v>-1.1200000000000001</v>
+        <v>1.1028615242463009</v>
       </c>
       <c r="I80">
         <v>0.59121302145178023</v>
@@ -4722,7 +4741,7 @@
         <v>5.360192584755139</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -4739,13 +4758,13 @@
         <v>0.64654354460843255</v>
       </c>
       <c r="F81">
-        <v>0.67</v>
+        <v>0.67675569144218617</v>
       </c>
       <c r="G81">
-        <v>0.02</v>
+        <v>3.021214683375362E-2</v>
       </c>
       <c r="H81">
-        <v>2.99</v>
+        <v>4.6728711601398878</v>
       </c>
       <c r="I81">
         <v>0.68522322992369777</v>
@@ -4775,7 +4794,7 @@
         <v>-4.8217975489683784</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -4792,13 +4811,13 @@
         <v>0.60094610713212993</v>
       </c>
       <c r="F82">
-        <v>0.64</v>
+        <v>0.64846905531606336</v>
       </c>
       <c r="G82">
-        <v>0.04</v>
+        <v>4.7522948183933433E-2</v>
       </c>
       <c r="H82">
-        <v>6.59</v>
+        <v>7.9080216378678649</v>
       </c>
       <c r="I82">
         <v>0.68031971263290991</v>
@@ -4828,7 +4847,7 @@
         <v>6.1342858854242373</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -4845,13 +4864,13 @@
         <v>0.61011502716393096</v>
       </c>
       <c r="F83">
-        <v>0.62</v>
+        <v>0.63153030440505886</v>
       </c>
       <c r="G83">
-        <v>0.01</v>
+        <v>2.1415277241127909E-2</v>
       </c>
       <c r="H83">
-        <v>1.39</v>
+        <v>3.51003930204359</v>
       </c>
       <c r="I83">
         <v>0.61999134943451284</v>
@@ -4881,7 +4900,7 @@
         <v>3.4024899013484089</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -4898,13 +4917,13 @@
         <v>0.6321723920798954</v>
       </c>
       <c r="F84">
-        <v>0.63</v>
+        <v>0.62366466471941084</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>-8.5077273604845516E-3</v>
       </c>
       <c r="H84">
-        <v>0.1</v>
+        <v>-1.345792297650563</v>
       </c>
       <c r="I84">
         <v>0.63263064604768748</v>
@@ -4934,7 +4953,7 @@
         <v>1.974487235524029</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -4951,13 +4970,13 @@
         <v>0.59895101581459531</v>
       </c>
       <c r="F85">
-        <v>0.62</v>
+        <v>0.60952238974526307</v>
       </c>
       <c r="G85">
-        <v>0.02</v>
+        <v>1.057137393066776E-2</v>
       </c>
       <c r="H85">
-        <v>3.11</v>
+        <v>1.7649813843775359</v>
       </c>
       <c r="I85">
         <v>0.6115149703838223</v>
@@ -4987,7 +5006,7 @@
         <v>3.0772623435373809</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -5004,13 +5023,13 @@
         <v>0.57706576698884782</v>
       </c>
       <c r="F86">
-        <v>0.56999999999999995</v>
+        <v>0.568207889632378</v>
       </c>
       <c r="G86">
-        <v>-0.01</v>
+        <v>-8.8578773564698121E-3</v>
       </c>
       <c r="H86">
-        <v>-2.02</v>
+        <v>-1.5349857612747619</v>
       </c>
       <c r="I86">
         <v>0.59396549617226235</v>
@@ -5040,7 +5059,7 @@
         <v>1.2391830095031859</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -5057,13 +5076,13 @@
         <v>0.46313534371080128</v>
       </c>
       <c r="F87">
-        <v>0.46</v>
+        <v>0.45001253920343021</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>-1.312280450737113E-2</v>
       </c>
       <c r="H87">
-        <v>-0.52</v>
+        <v>-2.8334707522485032</v>
       </c>
       <c r="I87">
         <v>0.51227740840348701</v>
@@ -5093,7 +5112,7 @@
         <v>-5.5577606765307754</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -5110,13 +5129,13 @@
         <v>0.53492687564813035</v>
       </c>
       <c r="F88">
-        <v>0.52</v>
+        <v>0.54147662997939461</v>
       </c>
       <c r="G88">
-        <v>-0.01</v>
+        <v>6.549754331264257E-3</v>
       </c>
       <c r="H88">
-        <v>-2.2000000000000002</v>
+        <v>1.22442050108782</v>
       </c>
       <c r="I88">
         <v>0.50570568786068126</v>
@@ -5146,7 +5165,7 @@
         <v>3.2705566581850101</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -5163,13 +5182,13 @@
         <v>0.51697723734464773</v>
       </c>
       <c r="F89">
-        <v>0.52</v>
+        <v>0.53460887916607402</v>
       </c>
       <c r="G89">
-        <v>0.01</v>
+        <v>1.7631641821426292E-2</v>
       </c>
       <c r="H89">
-        <v>1.1100000000000001</v>
+        <v>3.4105257538973599</v>
       </c>
       <c r="I89">
         <v>0.54187358507243411</v>
@@ -5199,7 +5218,7 @@
         <v>-4.7842123868838984</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -5216,13 +5235,13 @@
         <v>0.58487301606334596</v>
       </c>
       <c r="F90">
-        <v>0.61</v>
+        <v>0.62046883229210759</v>
       </c>
       <c r="G90">
-        <v>0.02</v>
+        <v>3.5595816228761623E-2</v>
       </c>
       <c r="H90">
-        <v>3.51</v>
+        <v>6.0860759944695992</v>
       </c>
       <c r="I90">
         <v>0.58366370015476532</v>
@@ -5252,7 +5271,7 @@
         <v>5.4376244876765556</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -5269,13 +5288,13 @@
         <v>0.60291016462773783</v>
       </c>
       <c r="F91">
-        <v>0.61</v>
+        <v>0.62766322439007349</v>
       </c>
       <c r="G91">
-        <v>0.01</v>
+        <v>2.4753059762335661E-2</v>
       </c>
       <c r="H91">
-        <v>1.69</v>
+        <v>4.1055966899511871</v>
       </c>
       <c r="I91">
         <v>0.65010617737043885</v>
@@ -5305,7 +5324,7 @@
         <v>5.323438027751302</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -5322,13 +5341,13 @@
         <v>0.58778054819322723</v>
       </c>
       <c r="F92">
-        <v>0.57999999999999996</v>
+        <v>0.58383547799314162</v>
       </c>
       <c r="G92">
-        <v>-0.01</v>
+        <v>-3.9450702000856097E-3</v>
       </c>
       <c r="H92">
-        <v>-1.73</v>
+        <v>-0.67118080246315082</v>
       </c>
       <c r="I92">
         <v>0.59915456545157242</v>
@@ -5358,7 +5377,7 @@
         <v>-4.4682575392306871</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -5375,13 +5394,13 @@
         <v>0.59390413580566048</v>
       </c>
       <c r="F93">
-        <v>0.6</v>
+        <v>0.60864551544470413</v>
       </c>
       <c r="G93">
-        <v>0.01</v>
+        <v>1.474137963904365E-2</v>
       </c>
       <c r="H93">
-        <v>1.31</v>
+        <v>2.482114326253384</v>
       </c>
       <c r="I93">
         <v>0.61110176817781225</v>
@@ -5411,7 +5430,7 @@
         <v>-0.47279514786699378</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -5428,13 +5447,13 @@
         <v>0.60602135637526722</v>
       </c>
       <c r="F94">
-        <v>0.61</v>
+        <v>0.6182703946539253</v>
       </c>
       <c r="G94">
-        <v>0.01</v>
+        <v>1.224903827865809E-2</v>
       </c>
       <c r="H94">
-        <v>1.41</v>
+        <v>2.0212222143328402</v>
       </c>
       <c r="I94">
         <v>0.62396784653579962</v>
@@ -5464,7 +5483,7 @@
         <v>1.874787058586789</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -5481,13 +5500,13 @@
         <v>0.54760406482764323</v>
       </c>
       <c r="F95">
-        <v>0.6</v>
+        <v>0.6088171497957412</v>
       </c>
       <c r="G95">
-        <v>0.06</v>
+        <v>6.1213084968097957E-2</v>
       </c>
       <c r="H95">
-        <v>10.24</v>
+        <v>11.178347441114161</v>
       </c>
       <c r="I95">
         <v>0.61819764919768216</v>
@@ -5517,7 +5536,7 @@
         <v>11.16534418931225</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -5534,13 +5553,13 @@
         <v>0.57588232055452815</v>
       </c>
       <c r="F96">
-        <v>0.56000000000000005</v>
+        <v>0.55994284427791596</v>
       </c>
       <c r="G96">
-        <v>-0.01</v>
+        <v>-1.5939476276612189E-2</v>
       </c>
       <c r="H96">
-        <v>-2.17</v>
+        <v>-2.767835668451109</v>
       </c>
       <c r="I96">
         <v>0.57020971176177337</v>
@@ -5570,7 +5589,7 @@
         <v>-2.0835610906683248</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -5587,13 +5606,13 @@
         <v>0.53829132620426501</v>
       </c>
       <c r="F97">
-        <v>0.56000000000000005</v>
+        <v>0.55722871237320426</v>
       </c>
       <c r="G97">
-        <v>0.02</v>
+        <v>1.8937386168939249E-2</v>
       </c>
       <c r="H97">
-        <v>3.91</v>
+        <v>3.5180552327445631</v>
       </c>
       <c r="I97">
         <v>0.5681253139182243</v>
@@ -5623,7 +5642,7 @@
         <v>4.7874780304170343</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -5640,13 +5659,13 @@
         <v>0.61006662292185454</v>
       </c>
       <c r="F98">
-        <v>0.63</v>
+        <v>0.63081961535075015</v>
       </c>
       <c r="G98">
-        <v>0.02</v>
+        <v>2.0752992428895611E-2</v>
       </c>
       <c r="H98">
-        <v>2.71</v>
+        <v>3.401758373454554</v>
       </c>
       <c r="I98">
         <v>0.64215993277864292</v>
@@ -5676,7 +5695,7 @@
         <v>3.6045329445396268</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -5693,13 +5712,13 @@
         <v>0.53839176275823986</v>
       </c>
       <c r="F99">
-        <v>0.56000000000000005</v>
+        <v>0.5654935046025299</v>
       </c>
       <c r="G99">
-        <v>0.02</v>
+        <v>2.7101741844290039E-2</v>
       </c>
       <c r="H99">
-        <v>3.35</v>
+        <v>5.0338329296579234</v>
       </c>
       <c r="I99">
         <v>0.58825787695206588</v>
@@ -5729,7 +5748,7 @@
         <v>-8.758037968099698</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -5746,13 +5765,13 @@
         <v>0.54251418108978122</v>
       </c>
       <c r="F100">
-        <v>0.59</v>
+        <v>0.5898099915079178</v>
       </c>
       <c r="G100">
-        <v>0.05</v>
+        <v>4.7295810418136568E-2</v>
       </c>
       <c r="H100">
-        <v>8.56</v>
+        <v>8.7178938480705881</v>
       </c>
       <c r="I100">
         <v>0.58791852150060075</v>
@@ -5782,7 +5801,7 @@
         <v>2.8248290672536349</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -5799,13 +5818,13 @@
         <v>0.5384650981385386</v>
       </c>
       <c r="F101">
-        <v>0.54</v>
+        <v>0.54171746829916567</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>3.2523701606270721E-3</v>
       </c>
       <c r="H101">
-        <v>0.85</v>
+        <v>0.60400760826847277</v>
       </c>
       <c r="I101">
         <v>0.53399542596463823</v>
@@ -5835,7 +5854,7 @@
         <v>0.67647136101706506</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -5852,13 +5871,13 @@
         <v>0.63815362263533604</v>
       </c>
       <c r="F102">
-        <v>0.66</v>
+        <v>0.66129657832869215</v>
       </c>
       <c r="G102">
-        <v>0.02</v>
+        <v>2.3142955693356119E-2</v>
       </c>
       <c r="H102">
-        <v>2.91</v>
+        <v>3.6265492935359909</v>
       </c>
       <c r="I102">
         <v>0.64616670272351728</v>
@@ -5888,7 +5907,7 @@
         <v>2.8173926006924099</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -5905,13 +5924,13 @@
         <v>0.55239777949257052</v>
       </c>
       <c r="F103">
-        <v>0.57999999999999996</v>
+        <v>0.58900074487391496</v>
       </c>
       <c r="G103">
-        <v>0.03</v>
+        <v>3.6602965381344443E-2</v>
       </c>
       <c r="H103">
-        <v>4.7300000000000004</v>
+        <v>6.6261970522343017</v>
       </c>
       <c r="I103">
         <v>0.58914471787613731</v>
@@ -5941,7 +5960,7 @@
         <v>4.3645785400728032</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -5958,13 +5977,13 @@
         <v>0.58207031373892137</v>
       </c>
       <c r="F104">
-        <v>0.59</v>
+        <v>0.59428692966380803</v>
       </c>
       <c r="G104">
-        <v>0.01</v>
+        <v>1.221661592488665E-2</v>
       </c>
       <c r="H104">
-        <v>1.7</v>
+        <v>2.0988213342153421</v>
       </c>
       <c r="I104">
         <v>0.58880619432376102</v>
@@ -5994,7 +6013,7 @@
         <v>0.27955570299713811</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -6011,13 +6030,13 @@
         <v>0.56277717013147521</v>
       </c>
       <c r="F105">
-        <v>0.6</v>
+        <v>0.60121414857412314</v>
       </c>
       <c r="G105">
-        <v>0.03</v>
+        <v>3.8436978442647929E-2</v>
       </c>
       <c r="H105">
-        <v>5.84</v>
+        <v>6.8298752121853727</v>
       </c>
       <c r="I105">
         <v>0.57216352640439228</v>
@@ -6047,7 +6066,7 @@
         <v>-2.1140065902957481</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -6064,13 +6083,13 @@
         <v>0.58024401642629342</v>
       </c>
       <c r="F106">
-        <v>0.6</v>
+        <v>0.60726663620874688</v>
       </c>
       <c r="G106">
-        <v>0.02</v>
+        <v>2.7022619782453461E-2</v>
       </c>
       <c r="H106">
-        <v>2.75</v>
+        <v>4.6571130451090248</v>
       </c>
       <c r="I106">
         <v>0.60893803662056378</v>
@@ -6100,7 +6119,7 @@
         <v>-1.7166014316966569</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -6117,13 +6136,13 @@
         <v>0.56443243837179291</v>
       </c>
       <c r="F107">
-        <v>0.57999999999999996</v>
+        <v>0.58180588364000463</v>
       </c>
       <c r="G107">
-        <v>0.02</v>
+        <v>1.7373445268211721E-2</v>
       </c>
       <c r="H107">
-        <v>3.52</v>
+        <v>3.0780380586077851</v>
       </c>
       <c r="I107">
         <v>0.58845809025486107</v>
@@ -6153,7 +6172,7 @@
         <v>6.0247557526209352</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -6170,13 +6189,13 @@
         <v>0.51345897218455405</v>
       </c>
       <c r="F108">
-        <v>0.47</v>
+        <v>0.52202113571906783</v>
       </c>
       <c r="G108">
-        <v>-0.04</v>
+        <v>8.5621635345137781E-3</v>
       </c>
       <c r="H108">
-        <v>-7.76</v>
+        <v>1.6675458017775679</v>
       </c>
       <c r="I108">
         <v>0.54635678793028397</v>
@@ -6206,7 +6225,7 @@
         <v>4.2224780489342457</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -6223,13 +6242,13 @@
         <v>0.59522696144760734</v>
       </c>
       <c r="F109">
-        <v>0.62</v>
+        <v>0.63156700991942227</v>
       </c>
       <c r="G109">
-        <v>0.03</v>
+        <v>3.6340048471814927E-2</v>
       </c>
       <c r="H109">
-        <v>4.93</v>
+        <v>6.1052423404065896</v>
       </c>
       <c r="I109">
         <v>0.65096920693738958</v>
@@ -6259,7 +6278,7 @@
         <v>-2.377300687377256</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -6276,13 +6295,13 @@
         <v>0.56285990330897284</v>
       </c>
       <c r="F110">
-        <v>0.59</v>
+        <v>0.59801748500772711</v>
       </c>
       <c r="G110">
-        <v>0.02</v>
+        <v>3.515758169875427E-2</v>
       </c>
       <c r="H110">
-        <v>4.0599999999999996</v>
+        <v>6.2462402263987684</v>
       </c>
       <c r="I110">
         <v>0.62462474850336125</v>
@@ -6312,7 +6331,7 @@
         <v>-3.6327515362849412</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -6329,13 +6348,13 @@
         <v>0.57359509283008125</v>
       </c>
       <c r="F111">
-        <v>0.56999999999999995</v>
+        <v>0.57401480010457218</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>4.1970727449092138E-4</v>
       </c>
       <c r="H111">
-        <v>-0.72</v>
+        <v>7.3171350267331042E-2</v>
       </c>
       <c r="I111">
         <v>0.57260523396884144</v>
@@ -6365,7 +6384,7 @@
         <v>2.2560953371127139</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>110</v>
       </c>
@@ -6382,13 +6401,13 @@
         <v>0.56368128865516587</v>
       </c>
       <c r="F112">
-        <v>0.56000000000000005</v>
+        <v>0.57143824532378984</v>
       </c>
       <c r="G112">
-        <v>-0.01</v>
+        <v>7.756956668623971E-3</v>
       </c>
       <c r="H112">
-        <v>-1.32</v>
+        <v>1.3761245627170919</v>
       </c>
       <c r="I112">
         <v>0.58260046812317545</v>
@@ -6418,7 +6437,7 @@
         <v>-0.885231367730416</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -6435,13 +6454,13 @@
         <v>0.55166175726227196</v>
       </c>
       <c r="F113">
-        <v>0.57999999999999996</v>
+        <v>0.57956045212949747</v>
       </c>
       <c r="G113">
-        <v>0.03</v>
+        <v>2.7898694867225519E-2</v>
       </c>
       <c r="H113">
-        <v>4.53</v>
+        <v>5.0572102379686754</v>
       </c>
       <c r="I113">
         <v>0.60412191733512932</v>
@@ -6471,7 +6490,7 @@
         <v>3.041198209039699</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>112</v>
       </c>
@@ -6488,13 +6507,13 @@
         <v>0.57411246604240329</v>
       </c>
       <c r="F114">
-        <v>0.56999999999999995</v>
+        <v>0.59516137503822297</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>2.1048908995819678E-2</v>
       </c>
       <c r="H114">
-        <v>-0.53</v>
+        <v>3.666338956357905</v>
       </c>
       <c r="I114">
         <v>0.57293830651911481</v>
@@ -6524,7 +6543,7 @@
         <v>1.1522529810974189</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -6541,13 +6560,13 @@
         <v>0.55132368477918736</v>
       </c>
       <c r="F115">
-        <v>0.53</v>
+        <v>0.5327300900819294</v>
       </c>
       <c r="G115">
-        <v>-0.02</v>
+        <v>-1.8593594697257961E-2</v>
       </c>
       <c r="H115">
-        <v>-3.28</v>
+        <v>-3.3725368981209201</v>
       </c>
       <c r="I115">
         <v>0.56193771306256668</v>
@@ -6577,7 +6596,7 @@
         <v>3.0996143556535838</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>114</v>
       </c>
@@ -6594,13 +6613,13 @@
         <v>0.59483918214139253</v>
       </c>
       <c r="F116">
-        <v>0.59</v>
+        <v>0.58508179135312743</v>
       </c>
       <c r="G116">
-        <v>-0.01</v>
+        <v>-9.7573907882650968E-3</v>
       </c>
       <c r="H116">
-        <v>-1.39</v>
+        <v>-1.6403409662993209</v>
       </c>
       <c r="I116">
         <v>0.58025197907868509</v>
@@ -6630,7 +6649,7 @@
         <v>-1.102295220696428</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -6647,13 +6666,13 @@
         <v>0.57217103012002801</v>
       </c>
       <c r="F117">
-        <v>0.56999999999999995</v>
+        <v>0.59649438489974138</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>2.4323354779713369E-2</v>
       </c>
       <c r="H117">
-        <v>0.24</v>
+        <v>4.2510636679055382</v>
       </c>
       <c r="I117">
         <v>0.60062077525338564</v>
@@ -6683,7 +6702,7 @@
         <v>5.7498151592960696</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>116</v>
       </c>
@@ -6700,13 +6719,13 @@
         <v>0.56568681765309836</v>
       </c>
       <c r="F118">
-        <v>0.59</v>
+        <v>0.59520775135743609</v>
       </c>
       <c r="G118">
-        <v>0.02</v>
+        <v>2.952093370433773E-2</v>
       </c>
       <c r="H118">
-        <v>4.33</v>
+        <v>5.2186002542560814</v>
       </c>
       <c r="I118">
         <v>0.60133673939225785</v>
@@ -6736,7 +6755,7 @@
         <v>-4.8692560960214113</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>117</v>
       </c>
@@ -6753,13 +6772,13 @@
         <v>0.555205176608355</v>
       </c>
       <c r="F119">
-        <v>0.57999999999999996</v>
+        <v>0.58251942073975327</v>
       </c>
       <c r="G119">
-        <v>0.02</v>
+        <v>2.7314244131398269E-2</v>
       </c>
       <c r="H119">
-        <v>3.84</v>
+        <v>4.9196666893950631</v>
       </c>
       <c r="I119">
         <v>0.58844985335686784</v>
@@ -6789,7 +6808,7 @@
         <v>2.399361194689984</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>118</v>
       </c>
@@ -6806,13 +6825,13 @@
         <v>0.55900651585805339</v>
       </c>
       <c r="F120">
-        <v>0.6</v>
+        <v>0.61024642781072547</v>
       </c>
       <c r="G120">
-        <v>0.04</v>
+        <v>5.1239911952672079E-2</v>
       </c>
       <c r="H120">
-        <v>7.68</v>
+        <v>9.1662459200535071</v>
       </c>
       <c r="I120">
         <v>0.63634858214392298</v>
@@ -6842,7 +6861,7 @@
         <v>9.4097180571649375</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>119</v>
       </c>
@@ -6859,13 +6878,13 @@
         <v>0.53121680117305259</v>
       </c>
       <c r="F121">
-        <v>0.53</v>
+        <v>0.55487458432252712</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>2.3657783149474532E-2</v>
       </c>
       <c r="H121">
-        <v>0.27</v>
+        <v>4.4535080775368057</v>
       </c>
       <c r="I121">
         <v>0.59761163058805988</v>
@@ -6895,7 +6914,7 @@
         <v>9.1046833479210232</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>120</v>
       </c>
@@ -6912,13 +6931,13 @@
         <v>0.69721388602933976</v>
       </c>
       <c r="F122">
-        <v>0.7</v>
+        <v>0.69712390640109823</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>-8.9979628241532161E-5</v>
       </c>
       <c r="H122">
-        <v>0.25</v>
+        <v>-1.290559899114598E-2</v>
       </c>
       <c r="I122">
         <v>0.6975757115083443</v>
@@ -6948,7 +6967,7 @@
         <v>-2.4095065399585982</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -6965,13 +6984,13 @@
         <v>0.51849830644334016</v>
       </c>
       <c r="F123">
-        <v>0.52</v>
+        <v>0.54008970070919626</v>
       </c>
       <c r="G123">
-        <v>0.01</v>
+        <v>2.1591394265856101E-2</v>
       </c>
       <c r="H123">
-        <v>1.03</v>
+        <v>4.1642169313846233</v>
       </c>
       <c r="I123">
         <v>0.55803349705869443</v>
@@ -7001,7 +7020,7 @@
         <v>2.1587746456735211</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -7018,13 +7037,13 @@
         <v>0.55663404394894256</v>
       </c>
       <c r="F124">
-        <v>0.56999999999999995</v>
+        <v>0.57392325231761721</v>
       </c>
       <c r="G124">
-        <v>0.01</v>
+        <v>1.728920836867465E-2</v>
       </c>
       <c r="H124">
-        <v>1.65</v>
+        <v>3.1060278394076279</v>
       </c>
       <c r="I124">
         <v>0.58522814544701718</v>
@@ -7054,7 +7073,7 @@
         <v>5.0546304443548333</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -7071,13 +7090,13 @@
         <v>0.58348633031744401</v>
       </c>
       <c r="F125">
-        <v>0.6</v>
+        <v>0.60017053503992002</v>
       </c>
       <c r="G125">
-        <v>0.01</v>
+        <v>1.6684204722476E-2</v>
       </c>
       <c r="H125">
-        <v>2.1</v>
+        <v>2.8593994161609602</v>
       </c>
       <c r="I125">
         <v>0.61727046730716439</v>
@@ -7107,7 +7126,7 @@
         <v>4.340976992969992</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -7124,13 +7143,13 @@
         <v>0.57328884270361569</v>
       </c>
       <c r="F126">
-        <v>0.56000000000000005</v>
+        <v>0.57719643010419308</v>
       </c>
       <c r="G126">
-        <v>-0.02</v>
+        <v>3.9075874005773947E-3</v>
       </c>
       <c r="H126">
-        <v>-2.82</v>
+        <v>0.68160883476282419</v>
       </c>
       <c r="I126">
         <v>0.59628487864964463</v>
@@ -7160,7 +7179,7 @@
         <v>1.567956515796713</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -7177,13 +7196,13 @@
         <v>0.57978645374930715</v>
       </c>
       <c r="F127">
-        <v>0.57999999999999996</v>
+        <v>0.59519166797186829</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1.540521422256114E-2</v>
       </c>
       <c r="H127">
-        <v>0.63</v>
+        <v>2.657049698719276</v>
       </c>
       <c r="I127">
         <v>0.56330245404164647</v>
@@ -7213,7 +7232,7 @@
         <v>0.92514344004914451</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -7230,13 +7249,13 @@
         <v>0.62278744813611553</v>
       </c>
       <c r="F128">
-        <v>0.62</v>
+        <v>0.62095673595888168</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>-1.830712177233851E-3</v>
       </c>
       <c r="H128">
-        <v>-0.28000000000000003</v>
+        <v>-0.2939545719350678</v>
       </c>
       <c r="I128">
         <v>0.63983025105605884</v>
@@ -7266,7 +7285,7 @@
         <v>-8.6137946661304774</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -7283,13 +7302,13 @@
         <v>0.5670799902807937</v>
       </c>
       <c r="F129">
-        <v>0.55000000000000004</v>
+        <v>0.57622044363909375</v>
       </c>
       <c r="G129">
-        <v>-0.02</v>
+        <v>9.1404533583000491E-3</v>
       </c>
       <c r="H129">
-        <v>-2.82</v>
+        <v>1.611845509444636</v>
       </c>
       <c r="I129">
         <v>0.58439916527745628</v>
@@ -7319,7 +7338,7 @@
         <v>1.789135943076144</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -7336,13 +7355,13 @@
         <v>0.58209686743314681</v>
       </c>
       <c r="F130">
-        <v>0.6</v>
+        <v>0.60255299523530836</v>
       </c>
       <c r="G130">
-        <v>0.01</v>
+        <v>2.045612780216155E-2</v>
       </c>
       <c r="H130">
-        <v>2.4300000000000002</v>
+        <v>3.514213689616001</v>
       </c>
       <c r="I130">
         <v>0.60573814918662361</v>
@@ -7372,7 +7391,7 @@
         <v>5.1216887207732178</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -7389,13 +7408,13 @@
         <v>0.58844996641116332</v>
       </c>
       <c r="F131">
-        <v>0.59</v>
+        <v>0.59298977030885358</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>4.5398038976902644E-3</v>
       </c>
       <c r="H131">
-        <v>0.39</v>
+        <v>0.77148511459310731</v>
       </c>
       <c r="I131">
         <v>0.58859350053749804</v>
@@ -7425,7 +7444,7 @@
         <v>2.6546879410459319</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>130</v>
       </c>
@@ -7442,13 +7461,13 @@
         <v>0.65710999582952578</v>
       </c>
       <c r="F132">
-        <v>0.65</v>
+        <v>0.65881644048728916</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1.706444657763373E-3</v>
       </c>
       <c r="H132">
-        <v>-0.4</v>
+        <v>0.2596893470794312</v>
       </c>
       <c r="I132">
         <v>0.67393209948512189</v>
@@ -7478,7 +7497,7 @@
         <v>-0.83450286688685305</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -7495,13 +7514,13 @@
         <v>0.59709169088591341</v>
       </c>
       <c r="F133">
-        <v>0.6</v>
+        <v>0.60085318465669313</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>3.761493770779722E-3</v>
       </c>
       <c r="H133">
-        <v>0.32</v>
+        <v>0.62996920375809295</v>
       </c>
       <c r="I133">
         <v>0.60374504974592136</v>
@@ -7531,7 +7550,7 @@
         <v>1.129639588537356</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>132</v>
       </c>
@@ -7548,13 +7567,13 @@
         <v>0.55461189588824855</v>
       </c>
       <c r="F134">
-        <v>0.56999999999999995</v>
+        <v>0.58057715577154101</v>
       </c>
       <c r="G134">
-        <v>0.01</v>
+        <v>2.5965259883292461E-2</v>
       </c>
       <c r="H134">
-        <v>2.42</v>
+        <v>4.6816990540217924</v>
       </c>
       <c r="I134">
         <v>0.59361211435565964</v>
@@ -7584,7 +7603,7 @@
         <v>1.6574127950486779</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>133</v>
       </c>
@@ -7601,13 +7620,13 @@
         <v>0.63964622541842231</v>
       </c>
       <c r="F135">
-        <v>0.66</v>
+        <v>0.63775838295026777</v>
       </c>
       <c r="G135">
-        <v>0.02</v>
+        <v>-1.887842468154544E-3</v>
       </c>
       <c r="H135">
-        <v>2.91</v>
+        <v>-0.29513853019606551</v>
       </c>
       <c r="I135">
         <v>0.66580260909122568</v>
@@ -7637,7 +7656,7 @@
         <v>-0.73765425380308147</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>134</v>
       </c>
@@ -7654,13 +7673,13 @@
         <v>0.54308097680931211</v>
       </c>
       <c r="F136">
-        <v>0.53</v>
+        <v>0.56026234387162765</v>
       </c>
       <c r="G136">
-        <v>-0.01</v>
+        <v>1.7181367062315541E-2</v>
       </c>
       <c r="H136">
-        <v>-1.56</v>
+        <v>3.163684201066816</v>
       </c>
       <c r="I136">
         <v>0.57976746219098341</v>
@@ -7690,7 +7709,7 @@
         <v>4.5047806407303304</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>135</v>
       </c>
@@ -7707,13 +7726,13 @@
         <v>0.5513060894654549</v>
       </c>
       <c r="F137">
-        <v>0.54</v>
+        <v>0.55193490646653265</v>
       </c>
       <c r="G137">
-        <v>-0.01</v>
+        <v>6.2881700107775274E-4</v>
       </c>
       <c r="H137">
-        <v>-2.56</v>
+        <v>0.1140595057978504</v>
       </c>
       <c r="I137">
         <v>0.57772816011667649</v>
@@ -7743,7 +7762,7 @@
         <v>5.9143587845158363</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>136</v>
       </c>
@@ -7760,13 +7779,13 @@
         <v>0.66407550146791317</v>
       </c>
       <c r="F138">
-        <v>0.66</v>
+        <v>0.66359142850890174</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>-4.8407295901142788E-4</v>
       </c>
       <c r="H138">
-        <v>0.14000000000000001</v>
+        <v>-7.2894265477555398E-2</v>
       </c>
       <c r="I138">
         <v>0.67115367232064882</v>
@@ -7796,7 +7815,7 @@
         <v>-5.0763632662923781</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -7813,13 +7832,13 @@
         <v>0.54881308336519541</v>
       </c>
       <c r="F139">
-        <v>0.6</v>
+        <v>0.6040243166877004</v>
       </c>
       <c r="G139">
-        <v>0.05</v>
+        <v>5.5211233322504993E-2</v>
       </c>
       <c r="H139">
-        <v>9.6</v>
+        <v>10.06011609343612</v>
       </c>
       <c r="I139">
         <v>0.61321487134081343</v>
@@ -7849,7 +7868,7 @@
         <v>10.19173580882809</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>138</v>
       </c>
@@ -7866,13 +7885,13 @@
         <v>0.52908836384944191</v>
       </c>
       <c r="F140">
-        <v>0.53</v>
+        <v>0.53707593453495961</v>
       </c>
       <c r="G140">
-        <v>0.01</v>
+        <v>7.9875706855176976E-3</v>
       </c>
       <c r="H140">
-        <v>0.98</v>
+        <v>1.5096855707434631</v>
       </c>
       <c r="I140">
         <v>0.57785622125280423</v>
@@ -7902,7 +7921,7 @@
         <v>2.928414932927299</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>139</v>
       </c>
@@ -7919,13 +7938,13 @@
         <v>0.52081577251819278</v>
       </c>
       <c r="F141">
-        <v>0.53</v>
+        <v>0.55725127754885573</v>
       </c>
       <c r="G141">
-        <v>0.01</v>
+        <v>3.6435505030662951E-2</v>
       </c>
       <c r="H141">
-        <v>2.72</v>
+        <v>6.9958528434140712</v>
       </c>
       <c r="I141">
         <v>0.54618632503613651</v>
@@ -7955,7 +7974,7 @@
         <v>8.0996673965336896</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>140</v>
       </c>
@@ -7972,13 +7991,13 @@
         <v>0.54381120213803102</v>
       </c>
       <c r="F142">
-        <v>0.56000000000000005</v>
+        <v>0.57271482925436556</v>
       </c>
       <c r="G142">
-        <v>0.02</v>
+        <v>2.890362711633454E-2</v>
       </c>
       <c r="H142">
-        <v>3.14</v>
+        <v>5.3150113500233074</v>
       </c>
       <c r="I142">
         <v>0.59581064877751877</v>
@@ -8008,7 +8027,7 @@
         <v>-11.03269596542949</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -8025,13 +8044,13 @@
         <v>0.63926753038291884</v>
       </c>
       <c r="F143">
-        <v>0.66</v>
+        <v>0.66541396575831069</v>
       </c>
       <c r="G143">
-        <v>0.02</v>
+        <v>2.6146435375391849E-2</v>
       </c>
       <c r="H143">
-        <v>3.53</v>
+        <v>4.0900615364791388</v>
       </c>
       <c r="I143">
         <v>0.63821599782015359</v>
@@ -8061,7 +8080,7 @@
         <v>1.7307383897222031</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>142</v>
       </c>
@@ -8078,13 +8097,13 @@
         <v>0.59298827754057193</v>
       </c>
       <c r="F144">
-        <v>0.61</v>
+        <v>0.61565570063113084</v>
       </c>
       <c r="G144">
-        <v>0.02</v>
+        <v>2.266742309055891E-2</v>
       </c>
       <c r="H144">
-        <v>2.7</v>
+        <v>3.8225752428989659</v>
       </c>
       <c r="I144">
         <v>0.61590251529647089</v>
@@ -8114,7 +8133,7 @@
         <v>1.4436097638089751</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -8131,13 +8150,13 @@
         <v>0.5523456871369381</v>
       </c>
       <c r="F145">
-        <v>0.56999999999999995</v>
+        <v>0.58807166260288291</v>
       </c>
       <c r="G145">
-        <v>0.02</v>
+        <v>3.5725975465944797E-2</v>
       </c>
       <c r="H145">
-        <v>2.86</v>
+        <v>6.4680464241748634</v>
       </c>
       <c r="I145">
         <v>0.57471778229524051</v>
@@ -8167,7 +8186,7 @@
         <v>2.9051578666867539</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>144</v>
       </c>
@@ -8184,13 +8203,13 @@
         <v>0.53080743458030943</v>
       </c>
       <c r="F146">
-        <v>0.56000000000000005</v>
+        <v>0.56889750427920505</v>
       </c>
       <c r="G146">
-        <v>0.02</v>
+        <v>3.8090069698895612E-2</v>
       </c>
       <c r="H146">
-        <v>4.66</v>
+        <v>7.1758734368541912</v>
       </c>
       <c r="I146">
         <v>0.57561059038198548</v>
@@ -8220,7 +8239,7 @@
         <v>7.0461379243463478</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>145</v>
       </c>
@@ -8237,13 +8256,13 @@
         <v>0.58031479755832416</v>
       </c>
       <c r="F147">
-        <v>0.57999999999999996</v>
+        <v>0.59013173015374165</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>9.8169325954174935E-3</v>
       </c>
       <c r="H147">
-        <v>-0.14000000000000001</v>
+        <v>1.691656431426918</v>
       </c>
       <c r="I147">
         <v>0.5778147155818889</v>
@@ -8273,7 +8292,7 @@
         <v>4.3103976238386892</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>146</v>
       </c>
@@ -8290,13 +8309,13 @@
         <v>0.55548974712391563</v>
       </c>
       <c r="F148">
-        <v>0.57999999999999996</v>
+        <v>0.59423361339040004</v>
       </c>
       <c r="G148">
-        <v>0.02</v>
+        <v>3.8743866266484413E-2</v>
       </c>
       <c r="H148">
-        <v>3.66</v>
+        <v>6.9747221199100968</v>
       </c>
       <c r="I148">
         <v>0.61930769125895613</v>
@@ -8326,7 +8345,7 @@
         <v>7.3484877688773116</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>147</v>
       </c>
@@ -8343,13 +8362,13 @@
         <v>0.59227138880381147</v>
       </c>
       <c r="F149">
-        <v>0.61</v>
+        <v>0.6238277952126825</v>
       </c>
       <c r="G149">
-        <v>0.02</v>
+        <v>3.1556406408871029E-2</v>
       </c>
       <c r="H149">
-        <v>3.8</v>
+        <v>5.3280315418585946</v>
       </c>
       <c r="I149">
         <v>0.63588110837179646</v>
@@ -8379,7 +8398,7 @@
         <v>3.3479582131389698</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>148</v>
       </c>
@@ -8396,13 +8415,13 @@
         <v>0.56887439540844342</v>
       </c>
       <c r="F150">
-        <v>0.59</v>
+        <v>0.59574286540439736</v>
       </c>
       <c r="G150">
-        <v>0.02</v>
+        <v>2.686846999595394E-2</v>
       </c>
       <c r="H150">
-        <v>3.6</v>
+        <v>4.723093570886201</v>
       </c>
       <c r="I150">
         <v>0.61006921526799429</v>
@@ -8432,7 +8451,7 @@
         <v>5.0396348931338517</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>149</v>
       </c>
@@ -8449,13 +8468,13 @@
         <v>0.5642386003214972</v>
       </c>
       <c r="F151">
-        <v>0.57999999999999996</v>
+        <v>0.58896512771103782</v>
       </c>
       <c r="G151">
-        <v>0.02</v>
+        <v>2.472652738954062E-2</v>
       </c>
       <c r="H151">
-        <v>3.01</v>
+        <v>4.3822821365733757</v>
       </c>
       <c r="I151">
         <v>0.59260106221956121</v>
@@ -8485,7 +8504,7 @@
         <v>1.422867644673192</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>150</v>
       </c>
@@ -8502,13 +8521,13 @@
         <v>0.70195116543910907</v>
       </c>
       <c r="F152">
-        <v>0.68</v>
+        <v>0.68587096203357412</v>
       </c>
       <c r="G152">
-        <v>-0.02</v>
+        <v>-1.6080203405534951E-2</v>
       </c>
       <c r="H152">
-        <v>-2.4300000000000002</v>
+        <v>-2.2907866240917061</v>
       </c>
       <c r="I152">
         <v>0.67443411796672237</v>
@@ -8538,7 +8557,7 @@
         <v>-5.1983719090547549</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>151</v>
       </c>
@@ -8555,13 +8574,13 @@
         <v>0.56905940971368452</v>
       </c>
       <c r="F153">
-        <v>0.61</v>
+        <v>0.61314101296663126</v>
       </c>
       <c r="G153">
-        <v>0.04</v>
+        <v>4.4081603252946737E-2</v>
       </c>
       <c r="H153">
-        <v>7.33</v>
+        <v>7.7463973884775719</v>
       </c>
       <c r="I153">
         <v>0.62059650988447745</v>
@@ -8591,7 +8610,7 @@
         <v>7.5831688780544413</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>152</v>
       </c>
@@ -8608,13 +8627,13 @@
         <v>0.53362672620906859</v>
       </c>
       <c r="F154">
-        <v>0.53</v>
+        <v>0.53780003227831596</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>4.1733060692473734E-3</v>
       </c>
       <c r="H154">
-        <v>-0.74</v>
+        <v>0.78206466510680772</v>
       </c>
       <c r="I154">
         <v>0.5082309121473314</v>
@@ -8644,7 +8663,7 @@
         <v>1.9943101284672871</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -8661,13 +8680,13 @@
         <v>0.63299867663035769</v>
       </c>
       <c r="F155">
-        <v>0.67</v>
+        <v>0.64292774139732101</v>
       </c>
       <c r="G155">
-        <v>0.04</v>
+        <v>9.9290647669633136E-3</v>
       </c>
       <c r="H155">
-        <v>6.23</v>
+        <v>1.5685759123255529</v>
       </c>
       <c r="I155">
         <v>0.63952053393701302</v>
@@ -8697,7 +8716,7 @@
         <v>9.4997058604406828</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -8714,13 +8733,13 @@
         <v>0.55855588167105052</v>
       </c>
       <c r="F156">
-        <v>0.54</v>
+        <v>0.57174139024749526</v>
       </c>
       <c r="G156">
-        <v>-0.02</v>
+        <v>1.3185508576444739E-2</v>
       </c>
       <c r="H156">
-        <v>-3.6</v>
+        <v>2.360642687531497</v>
       </c>
       <c r="I156">
         <v>0.57465263774325015</v>
@@ -8750,7 +8769,7 @@
         <v>-6.7613139366694632</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -8767,13 +8786,13 @@
         <v>0.62699232593362964</v>
       </c>
       <c r="F157">
-        <v>0.63</v>
+        <v>0.64136291918806265</v>
       </c>
       <c r="G157">
-        <v>0.01</v>
+        <v>1.4370593254433021E-2</v>
       </c>
       <c r="H157">
-        <v>1.24</v>
+        <v>2.291988699069694</v>
       </c>
       <c r="I157">
         <v>0.62499059174614824</v>
@@ -8803,7 +8822,7 @@
         <v>-6.552169564964637</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -8820,13 +8839,13 @@
         <v>0.55108626739331257</v>
       </c>
       <c r="F158">
-        <v>0.6</v>
+        <v>0.6079700708409963</v>
       </c>
       <c r="G158">
-        <v>0.05</v>
+        <v>5.6883803447683727E-2</v>
       </c>
       <c r="H158">
-        <v>9.11</v>
+        <v>10.32212319801566</v>
       </c>
       <c r="I158">
         <v>0.61314123185812963</v>
@@ -8856,7 +8875,7 @@
         <v>5.0407605407427507</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -8873,13 +8892,13 @@
         <v>0.62661999932509582</v>
       </c>
       <c r="F159">
-        <v>0.64</v>
+        <v>0.63273360033404602</v>
       </c>
       <c r="G159">
-        <v>0.01</v>
+        <v>6.113601008950198E-3</v>
       </c>
       <c r="H159">
-        <v>1.64</v>
+        <v>0.97564728472357765</v>
       </c>
       <c r="I159">
         <v>0.61639375297763932</v>
@@ -8909,7 +8928,7 @@
         <v>0.55567996241162676</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -8926,13 +8945,13 @@
         <v>0.66473085997553616</v>
       </c>
       <c r="F160">
-        <v>0.67</v>
+        <v>0.67389526407021416</v>
       </c>
       <c r="G160">
-        <v>0.01</v>
+        <v>9.1644040946780025E-3</v>
       </c>
       <c r="H160">
-        <v>1.26</v>
+        <v>1.3786638542725811</v>
       </c>
       <c r="I160">
         <v>0.6744969526307103</v>
@@ -8962,7 +8981,7 @@
         <v>-0.67432558728987058</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -8979,13 +8998,13 @@
         <v>0.64450988851979862</v>
       </c>
       <c r="F161">
-        <v>0.65</v>
+        <v>0.64583539567459392</v>
       </c>
       <c r="G161">
-        <v>0.01</v>
+        <v>1.325507154795291E-3</v>
       </c>
       <c r="H161">
-        <v>0.94</v>
+        <v>0.20566125957190379</v>
       </c>
       <c r="I161">
         <v>0.65617480148642937</v>
@@ -9015,7 +9034,7 @@
         <v>1.278199894134755</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -9032,13 +9051,13 @@
         <v>0.60844187378124759</v>
       </c>
       <c r="F162">
-        <v>0.61</v>
+        <v>0.60440000954788253</v>
       </c>
       <c r="G162">
-        <v>0.01</v>
+        <v>-4.0418642333650556E-3</v>
       </c>
       <c r="H162">
-        <v>0.98</v>
+        <v>-0.66429751263605874</v>
       </c>
       <c r="I162">
         <v>0.60880654841439941</v>
@@ -9068,7 +9087,7 @@
         <v>-2.9615283867794862</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -9085,13 +9104,13 @@
         <v>0.6141576008922276</v>
       </c>
       <c r="F163">
-        <v>0.62</v>
+        <v>0.61131001826022335</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>-2.8475826320042419E-3</v>
       </c>
       <c r="H163">
-        <v>0.25</v>
+        <v>-0.46365666204690292</v>
       </c>
       <c r="I163">
         <v>0.61794280514088695</v>
@@ -9121,7 +9140,7 @@
         <v>0.6392097852949421</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>7</v>
       </c>
@@ -9132,13 +9151,13 @@
         <v>95.670180412168165</v>
       </c>
       <c r="F164">
-        <v>96.62</v>
+        <v>97.881040948226939</v>
       </c>
       <c r="G164">
-        <v>0.95</v>
+        <v>2.2108605360588061</v>
       </c>
       <c r="H164">
-        <v>157.58000000000001</v>
+        <v>385.04548214742698</v>
       </c>
       <c r="I164">
         <v>98.61655268362783</v>
@@ -9168,7 +9187,7 @@
         <v>211.3954165459495</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>8</v>
       </c>
@@ -9179,13 +9198,13 @@
         <v>0.59055666921091454</v>
       </c>
       <c r="F165">
-        <v>0.6</v>
+        <v>0.60420395647053715</v>
       </c>
       <c r="G165">
-        <v>0.01</v>
+        <v>1.364728725962226E-2</v>
       </c>
       <c r="H165">
-        <v>0.97</v>
+        <v>2.3768239638730062</v>
       </c>
       <c r="I165">
         <v>0.608744152368073</v>
